--- a/src/data/EditarProductoData.xlsx
+++ b/src/data/EditarProductoData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veliz/Development/workspace-vscode-macbookpro/workspace-201901/workspace-isw/bodeguita/bodeguita-test/src/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D5AF6-77EE-9446-9BB9-D11DBAA03C00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="10350"/>
+    <workbookView xWindow="720" yWindow="5300" windowWidth="28780" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Caso de Prueba</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Golosinas</t>
   </si>
   <si>
-    <t>http://localhost:8080/BodeWeb</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
@@ -74,18 +72,9 @@
     <t>Peruana</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Galleta Casino Fresa</t>
   </si>
   <si>
-    <t>NuevoPrecio</t>
-  </si>
-  <si>
-    <t>Precio: Validation Error: Value is required.</t>
-  </si>
-  <si>
     <t>Editar Producto - Criterio Aceptación 01</t>
   </si>
   <si>
@@ -93,12 +82,33 @@
   </si>
   <si>
     <t>Editar Producto - Criterio Aceptación 02</t>
+  </si>
+  <si>
+    <t>http://localhost:3000</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Extranjera</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Rellenar el campo precio correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,11 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,40 +477,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,33 +527,30 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -553,36 +559,33 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -591,26 +594,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.5</v>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
